--- a/res/maps/custom_quadrillage/quadrillage.xlsx
+++ b/res/maps/custom_quadrillage/quadrillage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="12915" windowHeight="6150" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="90" windowWidth="12915" windowHeight="6150"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -13,10 +13,6 @@
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -72,427 +68,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="46">
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <color auto="1"/>
@@ -832,8 +408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X27"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L20" sqref="A1:X27"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection sqref="A1:X27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.140625" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -920,7 +496,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="1">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C2" s="1">
         <v>45</v>
@@ -983,7 +559,7 @@
         <v>45</v>
       </c>
       <c r="W2" s="1">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="X2" s="1">
         <v>11</v>
@@ -2696,7 +2272,7 @@
         <v>9</v>
       </c>
       <c r="B26" s="1">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C26" s="1">
         <v>45</v>
@@ -2759,7 +2335,7 @@
         <v>45</v>
       </c>
       <c r="W26" s="1">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="X26" s="1">
         <v>11</v>
@@ -2841,18 +2417,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:X2 A3:A27 X3:X27 B3:W10 B18:W27 B11:G17 R11:W17">
-    <cfRule type="cellIs" dxfId="45" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11:Q17">
-    <cfRule type="cellIs" dxfId="43" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>45</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2865,8 +2441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F18" sqref="A1:X27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.140625" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
